--- a/biology/Botanique/Carboxine/Carboxine.xlsx
+++ b/biology/Botanique/Carboxine/Carboxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La carboxine  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide, et qui appartient à la famille chimique des anilides.Le mode d'action de la carboxine est basé sur l'inhibition de la respiration cellulaire en bloquant une enzyme mitochondriale appelée succinate déshydrogénase (SDH), cette enzyme est présente dans tout organisme vivant. Comme tous les autres membres de la famille des SDHI, elle est très controversée du fait de ses effets nocifs suspectés sur l'ensemble du vivant.
@@ -512,12 +524,14 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est en révision en vue de l'inscription à l’annexe I de la directive 91/414/CEE.
 pour la France : cette substance active est autorisée dans la composition de préparations bénéficiant d’une autorisation de mise sur le marché.
-Selon le site Reporterre, il n'y a pas eu en 2022 de demande de renouvellement de son autorisation européenne, qui arrivait à échéance[2]. 
+Selon le site Reporterre, il n'y a pas eu en 2022 de demande de renouvellement de son autorisation européenne, qui arrivait à échéance. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Hydrolyse à pH 7 : stable,
@@ -581,7 +597,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 1,2 mg·L-1,
@@ -614,7 +632,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,01 mg·kg-1·j-1.
 </t>
@@ -646,6 +666,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
